--- a/data/trans_orig/P21D_4_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21D_4_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8ED91BBA-0C0E-43B2-B33C-05482B7A0191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7A060A1-D453-4BFB-9C6F-C5817F651E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9695988D-A28F-4E69-BF84-08CC25A1E546}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{507A169F-5DF2-49D3-82D3-6300F215018C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="74">
   <si>
     <t>Población que, necesitando atención sanitaria psicológica, no la pudo recibir por motivos económicos en 2023 (Tasa respuesta: 43,83%)</t>
   </si>
@@ -77,16 +77,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>2,1%</t>
+    <t>2,2%</t>
   </si>
   <si>
     <t>1,05%</t>
   </si>
   <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
   </si>
   <si>
     <t>0,81%</t>
@@ -95,7 +95,7 @@
     <t>0,34%</t>
   </si>
   <si>
-    <t>1,61%</t>
+    <t>1,73%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,7 +104,7 @@
     <t>99,55%</t>
   </si>
   <si>
-    <t>97,9%</t>
+    <t>97,8%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -113,16 +113,16 @@
     <t>98,95%</t>
   </si>
   <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
   </si>
   <si>
     <t>99,19%</t>
   </si>
   <si>
-    <t>98,39%</t>
+    <t>98,27%</t>
   </si>
   <si>
     <t>99,66%</t>
@@ -137,67 +137,73 @@
     <t>0,07%</t>
   </si>
   <si>
-    <t>0,39%</t>
+    <t>0,37%</t>
   </si>
   <si>
     <t>0,99%</t>
   </si>
   <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
     <t>0,54%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
+    <t>0,3%</t>
   </si>
   <si>
     <t>99,93%</t>
   </si>
   <si>
-    <t>99,61%</t>
+    <t>99,63%</t>
   </si>
   <si>
     <t>99,01%</t>
   </si>
   <si>
-    <t>98,19%</t>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
   </si>
   <si>
     <t>99,46%</t>
   </si>
   <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
+    <t>99,7%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>2,2%</t>
+    <t>1,82%</t>
   </si>
   <si>
     <t>0,2%</t>
   </si>
   <si>
-    <t>0,37%</t>
+    <t>1,01%</t>
   </si>
   <si>
     <t>0,09%</t>
   </si>
   <si>
-    <t>97,8%</t>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
   </si>
   <si>
     <t>99,8%</t>
   </si>
   <si>
-    <t>99,63%</t>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
   </si>
   <si>
     <t>99,91%</t>
@@ -206,43 +212,49 @@
     <t>0,23%</t>
   </si>
   <si>
-    <t>0,6%</t>
+    <t>0,58%</t>
   </si>
   <si>
     <t>0,85%</t>
   </si>
   <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
   </si>
   <si>
     <t>0,56%</t>
   </si>
   <si>
-    <t>0,84%</t>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
   </si>
   <si>
     <t>99,77%</t>
   </si>
   <si>
-    <t>99,4%</t>
+    <t>99,42%</t>
   </si>
   <si>
     <t>99,15%</t>
   </si>
   <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
   </si>
   <si>
     <t>99,44%</t>
   </si>
   <si>
-    <t>99,16%</t>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -657,7 +669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE1D492-4985-4233-A3E8-256CB5D87467}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F3DA113-A938-40DB-8A83-141691031AB1}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -966,13 +978,13 @@
         <v>10282</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1014,13 +1026,13 @@
         <v>2111</v>
       </c>
       <c r="N8" s="7">
-        <v>1901183</v>
+        <v>1901182</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>45</v>
@@ -1065,7 +1077,7 @@
         <v>2125</v>
       </c>
       <c r="N9" s="7">
-        <v>1911465</v>
+        <v>1911464</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1091,7 +1103,7 @@
         <v>1746</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
@@ -1112,7 +1124,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -1121,13 +1133,13 @@
         <v>2436</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>50</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1142,10 +1154,10 @@
         <v>322584</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>23</v>
@@ -1157,10 +1169,10 @@
         <v>338740</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>23</v>
@@ -1172,13 +1184,13 @@
         <v>661325</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1246,13 +1258,13 @@
         <v>3522</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -1261,13 +1273,13 @@
         <v>14182</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M13" s="7">
         <v>25</v>
@@ -1276,13 +1288,13 @@
         <v>17704</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1297,10 +1309,10 @@
         <v>1508928</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>39</v>
@@ -1312,13 +1324,13 @@
         <v>1661858</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M14" s="7">
         <v>3791</v>
@@ -1327,13 +1339,13 @@
         <v>3170786</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1389,7 +1401,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21D_4_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21D_4_R-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7A060A1-D453-4BFB-9C6F-C5817F651E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9887B94E-03FD-4114-B919-9A14BD3BD611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{507A169F-5DF2-49D3-82D3-6300F215018C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9545A9E4-082D-4E16-BEDC-2F45C8935184}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -669,7 +669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F3DA113-A938-40DB-8A83-141691031AB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F51B467-9EBE-4231-9513-3D269932651E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P21D_4_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21D_4_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9887B94E-03FD-4114-B919-9A14BD3BD611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E00BAF3F-F218-4ECA-9143-347907183A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9545A9E4-082D-4E16-BEDC-2F45C8935184}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1AD87DD1-EB1E-4BE8-90EC-0C3EEF11A61B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="70">
   <si>
     <t>Población que, necesitando atención sanitaria psicológica, no la pudo recibir por motivos económicos en 2023 (Tasa respuesta: 43,83%)</t>
   </si>
@@ -77,184 +77,172 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
     <t>2,2%</t>
   </si>
   <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,55%</t>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
   </si>
   <si>
     <t>97,8%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
+    <t>99,8%</t>
   </si>
   <si>
     <t>99,63%</t>
   </si>
   <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
     <t>99,91%</t>
   </si>
   <si>
     <t>0,23%</t>
   </si>
   <si>
-    <t>0,58%</t>
+    <t>0,6%</t>
   </si>
   <si>
     <t>0,85%</t>
   </si>
   <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
   </si>
   <si>
     <t>0,56%</t>
   </si>
   <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
+    <t>0,84%</t>
   </si>
   <si>
     <t>99,77%</t>
   </si>
   <si>
-    <t>99,42%</t>
+    <t>99,4%</t>
   </si>
   <si>
     <t>99,15%</t>
   </si>
   <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
   </si>
   <si>
     <t>99,44%</t>
   </si>
   <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
+    <t>99,16%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -669,7 +657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F51B467-9EBE-4231-9513-3D269932651E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63416C9B-9A09-48E9-A1BE-ADCD781D4794}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -978,13 +966,13 @@
         <v>10282</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1026,13 +1014,13 @@
         <v>2111</v>
       </c>
       <c r="N8" s="7">
-        <v>1901182</v>
+        <v>1901183</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>45</v>
@@ -1077,7 +1065,7 @@
         <v>2125</v>
       </c>
       <c r="N9" s="7">
-        <v>1911464</v>
+        <v>1911465</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1103,7 +1091,7 @@
         <v>1746</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
@@ -1124,7 +1112,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -1133,13 +1121,13 @@
         <v>2436</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>50</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1154,10 +1142,10 @@
         <v>322584</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>23</v>
@@ -1169,10 +1157,10 @@
         <v>338740</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>23</v>
@@ -1184,13 +1172,13 @@
         <v>661325</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1258,13 +1246,13 @@
         <v>3522</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -1273,13 +1261,13 @@
         <v>14182</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="M13" s="7">
         <v>25</v>
@@ -1288,13 +1276,13 @@
         <v>17704</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1309,10 +1297,10 @@
         <v>1508928</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>39</v>
@@ -1324,13 +1312,13 @@
         <v>1661858</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M14" s="7">
         <v>3791</v>
@@ -1339,13 +1327,13 @@
         <v>3170786</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1401,7 +1389,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21D_4_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21D_4_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E00BAF3F-F218-4ECA-9143-347907183A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F438DF9-81AC-49D8-8674-65911D889EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1AD87DD1-EB1E-4BE8-90EC-0C3EEF11A61B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{3FFAA5EC-3544-4B72-B58C-23740862276A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="78">
   <si>
     <t>Población que, necesitando atención sanitaria psicológica, no la pudo recibir por motivos económicos en 2023 (Tasa respuesta: 43,83%)</t>
   </si>
@@ -71,178 +71,202 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>0,45%</t>
+    <t>0,43%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>2,1%</t>
+    <t>1,98%</t>
   </si>
   <si>
     <t>1,05%</t>
   </si>
   <si>
-    <t>0,48%</t>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,54%</t>
   </si>
   <si>
     <t>2,31%</t>
   </si>
   <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
   </si>
   <si>
     <t>97,69%</t>
   </si>
   <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,2%</t>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
   </si>
   <si>
     <t>0,2%</t>
   </si>
   <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
   </si>
   <si>
     <t>99,8%</t>
   </si>
   <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -657,7 +681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63416C9B-9A09-48E9-A1BE-ADCD781D4794}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D45677B-BE73-4AC3-ACAF-7856D000F42E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -778,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>1077</v>
+        <v>1004</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -793,7 +817,7 @@
         <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>3910</v>
+        <v>3538</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -808,7 +832,7 @@
         <v>8</v>
       </c>
       <c r="N4" s="7">
-        <v>4986</v>
+        <v>4542</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -829,7 +853,7 @@
         <v>299</v>
       </c>
       <c r="D5" s="7">
-        <v>238914</v>
+        <v>229873</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -844,7 +868,7 @@
         <v>623</v>
       </c>
       <c r="I5" s="7">
-        <v>369364</v>
+        <v>332455</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -859,7 +883,7 @@
         <v>922</v>
       </c>
       <c r="N5" s="7">
-        <v>608279</v>
+        <v>562328</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -880,7 +904,7 @@
         <v>300</v>
       </c>
       <c r="D6" s="7">
-        <v>239991</v>
+        <v>230877</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -895,7 +919,7 @@
         <v>630</v>
       </c>
       <c r="I6" s="7">
-        <v>373274</v>
+        <v>335993</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -910,7 +934,7 @@
         <v>930</v>
       </c>
       <c r="N6" s="7">
-        <v>613265</v>
+        <v>566870</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -933,7 +957,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -948,7 +972,7 @@
         <v>13</v>
       </c>
       <c r="I7" s="7">
-        <v>9582</v>
+        <v>8877</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>34</v>
@@ -963,10 +987,10 @@
         <v>14</v>
       </c>
       <c r="N7" s="7">
-        <v>10282</v>
+        <v>9570</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>37</v>
@@ -984,7 +1008,7 @@
         <v>833</v>
       </c>
       <c r="D8" s="7">
-        <v>947429</v>
+        <v>1116440</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>39</v>
@@ -999,7 +1023,7 @@
         <v>1278</v>
       </c>
       <c r="I8" s="7">
-        <v>953754</v>
+        <v>928436</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>41</v>
@@ -1014,10 +1038,10 @@
         <v>2111</v>
       </c>
       <c r="N8" s="7">
-        <v>1901183</v>
+        <v>2044876</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>44</v>
@@ -1035,7 +1059,7 @@
         <v>834</v>
       </c>
       <c r="D9" s="7">
-        <v>948129</v>
+        <v>1117133</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1050,7 +1074,7 @@
         <v>1291</v>
       </c>
       <c r="I9" s="7">
-        <v>963336</v>
+        <v>937313</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1065,7 +1089,7 @@
         <v>2125</v>
       </c>
       <c r="N9" s="7">
-        <v>1911465</v>
+        <v>2054446</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1088,46 +1112,46 @@
         <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>1746</v>
+        <v>1684</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>690</v>
+        <v>651</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>2436</v>
+        <v>2335</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1139,13 +1163,13 @@
         <v>316</v>
       </c>
       <c r="D11" s="7">
-        <v>322584</v>
+        <v>308499</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>23</v>
@@ -1154,13 +1178,13 @@
         <v>442</v>
       </c>
       <c r="I11" s="7">
-        <v>338740</v>
+        <v>311636</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>23</v>
@@ -1169,16 +1193,16 @@
         <v>758</v>
       </c>
       <c r="N11" s="7">
-        <v>661325</v>
+        <v>620136</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1190,7 +1214,7 @@
         <v>318</v>
       </c>
       <c r="D12" s="7">
-        <v>324330</v>
+        <v>310183</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1205,7 +1229,7 @@
         <v>443</v>
       </c>
       <c r="I12" s="7">
-        <v>339430</v>
+        <v>312287</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1220,7 +1244,7 @@
         <v>761</v>
       </c>
       <c r="N12" s="7">
-        <v>663761</v>
+        <v>622471</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1243,46 +1267,46 @@
         <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>3522</v>
+        <v>3381</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
       </c>
       <c r="I13" s="7">
-        <v>14182</v>
+        <v>13066</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="M13" s="7">
         <v>25</v>
       </c>
       <c r="N13" s="7">
-        <v>17704</v>
+        <v>16447</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1294,46 +1318,46 @@
         <v>1448</v>
       </c>
       <c r="D14" s="7">
-        <v>1508928</v>
+        <v>1654812</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="H14" s="7">
         <v>2343</v>
       </c>
       <c r="I14" s="7">
-        <v>1661858</v>
+        <v>1572527</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="M14" s="7">
         <v>3791</v>
       </c>
       <c r="N14" s="7">
-        <v>3170786</v>
+        <v>3227340</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1345,7 +1369,7 @@
         <v>1452</v>
       </c>
       <c r="D15" s="7">
-        <v>1512450</v>
+        <v>1658193</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1360,7 +1384,7 @@
         <v>2364</v>
       </c>
       <c r="I15" s="7">
-        <v>1676040</v>
+        <v>1585593</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1375,7 +1399,7 @@
         <v>3816</v>
       </c>
       <c r="N15" s="7">
-        <v>3188490</v>
+        <v>3243787</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1389,7 +1413,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
